--- a/SessionNotes_PartA.xlsx
+++ b/SessionNotes_PartA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang\OneDrive\Desktop\MCGILL\FALL 2024\ECSE 429\Project\Part1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang\OneDrive\Desktop\MCGILL\FALL 2024\ECSE 429\Project\Part1\GitHub\ECSE429_Project_PartA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96B391-D724-4622-9136-F730BD5B1912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A4019-C4BA-486F-9705-B8559ABF9579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes Session 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="100">
   <si>
     <t>Method</t>
   </si>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>Test ideas</t>
-  </si>
-  <si>
-    <t>/foo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Expected Behavior</t>
@@ -202,9 +198,6 @@
     <t>If a todo is deleted, any new todo added cannot get the deleted todo's id value, new todos always have a new id increment</t>
   </si>
   <si>
-    <t>After testing, because the id counter of the API never resets, there is no way of re-running the same tests without restarting the server</t>
-  </si>
-  <si>
     <t>Get the header for all the instances of todos</t>
   </si>
   <si>
@@ -220,9 +213,6 @@
     <t>Need to test the behavior of API payload in JSON/XML is malformed</t>
   </si>
   <si>
-    <t>Unlike PUT, POST maintained relationship behaviors that were previously established and that the body did not modify</t>
-  </si>
-  <si>
     <t>What is exactly the difference between PUT and POST, since their documentations are the same but after testing, the two requests yield different results</t>
   </si>
   <si>
@@ -244,9 +234,6 @@
     <t>Requesting a GET on a deleted todo returns status code 404</t>
   </si>
   <si>
-    <t>The test first creates a new todo instance, then it deletes it and then it tries to retrieve the new deleted todo instance</t>
-  </si>
-  <si>
     <t>The screenshots shows the correct error message associated with error 404</t>
   </si>
   <si>
@@ -265,34 +252,100 @@
     <t>The new instance added to the empty API list does not have an id of 1, meaning that the API never resets its counter</t>
   </si>
   <si>
-    <t>This property of never decrementing/resetting the id counter prevents the tests to completely restore the system to its initial state that was before testing since the counter will inevitable be incremented</t>
-  </si>
-  <si>
-    <t>The todo instances are in arbitrary order when requested from the API, thus to ensure correctness of the get all test, we cannot rely on the todos ordering. This uses the pytest file test_todo_module_basic.py</t>
-  </si>
-  <si>
-    <t>This uses the pytest file test_todo_module_basic.py</t>
-  </si>
-  <si>
-    <t>Since the id was not specified, the API increments its id counter and assigns a brand new id to the new todo instance. This uses the pytest file test_todo_module_basic.py</t>
-  </si>
-  <si>
-    <t>The delete test was to request a delete on all instances in the given url, returned status code 405. This uses the pytest file test_todo_module_basic.py</t>
-  </si>
-  <si>
-    <t>Same process as the "Get all the current todos in the list" test, except we extracted the header data from the response. This uses the pytest file test_todo_module_basic.py</t>
-  </si>
-  <si>
-    <t>Any future new todo added to the list cannot re-use an id value that was previously assigned to a todo that is now deleted. This uses the pytest file test_todo_module_basic.py</t>
-  </si>
-  <si>
-    <t>Notably, the overwritten todo no longer is a task of Office Work, indicating that it was indeed overwritten and not updated since the new body did not contain taskof changes. This uses the pytest file test_todo_module_id.py</t>
-  </si>
-  <si>
     <t>Observe that the existing relationship for the dummy todo was removed</t>
   </si>
   <si>
     <t>Get all the current todos in the list with XML format</t>
+  </si>
+  <si>
+    <t>The API's id values seem to never decrease, is there any way for the user to reset that counter?</t>
+  </si>
+  <si>
+    <t>After properly testing my previous concerns about the id counter seemingly not being able to decrease, the testing from this session confirmed that the API indeed never decreases the id counter value</t>
+  </si>
+  <si>
+    <t>If the id counter is never reset, how can a tester fully restore the system to its initial state, including restoring the id counter value?</t>
+  </si>
+  <si>
+    <t>POST request a new todo instance without specifying the title returns a status code of 400</t>
+  </si>
+  <si>
+    <t>POST request a new todo instance without specifying the doneStatus gives it a default value of false</t>
+  </si>
+  <si>
+    <t>Requesting a PUT with a specifiec id in the url for a todo instance that does not exist returns a status code of 404</t>
+  </si>
+  <si>
+    <t>The todo instances are in arbitrary order when requested from the API, thus to ensure correctness of the get all test, we cannot rely on the todos ordering. This uses the pytest file test_todo_module_basic.py, test function test_todos_get()</t>
+  </si>
+  <si>
+    <t>This uses the pytest file test_todo_module_basic.py, test function test_todos_put()</t>
+  </si>
+  <si>
+    <t>Since the id was not specified, the API increments its id counter and assigns a brand new id to the new todo instance. This uses the pytest file test_todo_module_basic.py, test function test_todos_post()</t>
+  </si>
+  <si>
+    <t>The delete test was to request a delete on all instances in the given url, returned status code 405. This uses the pytest file test_todo_module_basic.py, test function test_todos_delete_all()</t>
+  </si>
+  <si>
+    <t>Same process as the "Get all the current todos in the list" test, except we extracted the header data from the response. This uses the pytest file test_todo_module_basic.py, test_todos_get_column_names()</t>
+  </si>
+  <si>
+    <t>Notably, the overwritten todo no longer is a task of Office Work, indicating that it was indeed overwritten and not updated since the new body did not contain taskof changes. This uses the pytest file test_todo_module_id.py, test function test_todos_put_duplicate_id()</t>
+  </si>
+  <si>
+    <t>Unlike PUT, POST maintained relationship behaviors that were previously established and that the body did not modify. This uses the pytest file test_todo_module_id.py, test function test_todos_post_duplicate_id()</t>
+  </si>
+  <si>
+    <t>This uses the pytest file test_todo_module_basic.py, test function test_todos_head()</t>
+  </si>
+  <si>
+    <t>Any future new todo added to the list cannot re-use an id value that was previously assigned to a todo that is now deleted. This uses the pytest file test_todo_module_basic.py, test function test_todos_delete()</t>
+  </si>
+  <si>
+    <t>This uses the pytest file test_todo_module_basic.py, test function test_todos_post_malformed_xml()</t>
+  </si>
+  <si>
+    <t>The test first creates a new todo instance, then it deletes it and then it tries to retrieve the new deleted todo instance. This uses the pytest file test_todo_module_id.py, test function test_todos_get_deleted_todo()</t>
+  </si>
+  <si>
+    <t>Does not work, matches the documentations, indicating that with /todos/:id, it is only used to amend and not create. This uses the pytest file test_todo_module_id.py, test function test_todos_put_new_todo()</t>
+  </si>
+  <si>
+    <t>This uses the pytest file test_todo_module_basic.py, test function test_todos_post_empty_title()</t>
+  </si>
+  <si>
+    <t>This property of never decrementing/resetting the id counter prevents the tests to completely restore the system to its initial state that was before testing since the counter will inevitable be incremented. This uses the pytest file test_todo_module_basic.py, test functions test_todos_delete_all() and test_todos_add_todo()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This uses the pytest file test_todo_module_basic.py, test_todos_post_malformed_xml()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This uses the pytest file test_todo_module_basic.py, test_todos_post_malformed_json()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This uses the pytest file test_todo_module_basic.py, test_todos_post_empty_doneStatus()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This uses the pytest file test_todo_module_basic.py, test_todos_post_no_title()</t>
+  </si>
+  <si>
+    <t>Further test edge cases with valid/invalid bodies to see if the API implementation covers all the cases</t>
+  </si>
+  <si>
+    <t>POST in /todos properly covers the case where the request body does not specify the doneStatus by setting it to false</t>
+  </si>
+  <si>
+    <t>POST in /todos also covers the unallowed case of empty title</t>
+  </si>
+  <si>
+    <t>The API properly handles malformed XML/JSON by returning a status code of 400</t>
+  </si>
+  <si>
+    <t>test if HEAD request works as intended in /todos/:id</t>
+  </si>
+  <si>
+    <t>Perform additional tests with XML payloads, see if there are any discrepencies between XML and JSON</t>
   </si>
 </sst>
 </file>
@@ -415,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,12 +535,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF005B"/>
+          <bgColor rgb="FFFF005B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB764FF"/>
+          <bgColor rgb="FFB764FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -561,128 +763,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFAD00"/>
           <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF005B"/>
-          <bgColor rgb="FFFF005B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB764FF"/>
-          <bgColor rgb="FFB764FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -780,28 +860,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -843,30 +901,27 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFAD00"/>
@@ -908,6 +963,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -934,6 +997,22 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFAD00"/>
           <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB764FF"/>
+          <bgColor rgb="FFB764FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -981,22 +1060,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB764FF"/>
-          <bgColor rgb="FFB764FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1019,37 +1082,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF00B0F0"/>
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
+          <fgColor rgb="FFFF005B"/>
+          <bgColor rgb="FFFF005B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1072,8 +1116,27 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF005B"/>
-          <bgColor rgb="FFFF005B"/>
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1649,6 +1712,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>527984</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7DA114C-FC81-BDF4-FBCA-D6E9999E659E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12581283" y="8398565"/>
+          <a:ext cx="20538766" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3569804</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589259</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>678406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF550C71-85D8-180B-BCF3-3C050A99D498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="9889434"/>
+          <a:ext cx="5591955" cy="438211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>191750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>866896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CDD6A2-3975-FF18-C5C1-9C37D03C92AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12581283" y="2302565"/>
+          <a:ext cx="8954750" cy="866896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1852,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -1883,24 +2078,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="199.5" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
@@ -1909,24 +2104,24 @@
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="120.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>7</v>
@@ -1935,22 +2130,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="150.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>10</v>
@@ -1959,22 +2154,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="62.25" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>11</v>
@@ -1983,22 +2178,22 @@
         <v>8</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="46.5" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>12</v>
@@ -2020,7 +2215,7 @@
     </row>
     <row r="7" spans="1:9" ht="39.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>13</v>
@@ -2029,10 +2224,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>9</v>
@@ -2042,7 +2237,7 @@
     </row>
     <row r="8" spans="1:9" ht="70.5" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>4</v>
@@ -2051,22 +2246,22 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="79.5" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>7</v>
@@ -2075,23 +2270,23 @@
         <v>5</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="G9" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="48" hidden="1" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>4</v>
@@ -2100,19 +2295,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="84.75" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>10</v>
@@ -2121,52 +2316,52 @@
         <v>5</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="219.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="178.5" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>11</v>
@@ -2175,23 +2370,23 @@
         <v>5</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="125.1" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>4</v>
@@ -2200,16 +2395,16 @@
         <v>5</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="6"/>
@@ -4576,8 +4771,14 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B1:B14">
-    <cfRule type="cellIs" dxfId="61" priority="18" operator="equal">
-      <formula>"OPTIONS"</formula>
+    <cfRule type="cellIs" dxfId="63" priority="22" operator="equal">
+      <formula>"PUT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
+      <formula>"POST"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="21" operator="equal">
+      <formula>"GET"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
       <formula>"PATCH"</formula>
@@ -4585,132 +4786,105 @@
     <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
+      <formula>"OPTIONS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="equal">
       <formula>"DELETE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
-      <formula>"POST"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
-      <formula>"GET"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="22" operator="equal">
-      <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C14">
-    <cfRule type="cellIs" dxfId="54" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="15" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C17 C19:C25 C27:C33 C35:C41 C43:C1000">
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+      <formula>"PUT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>"GET"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"POST"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+      <formula>"DELETE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>"OPTIONS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
-      <formula>"PUT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="54" operator="equal">
-      <formula>"GET"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
-      <formula>"POST"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
-      <formula>"DELETE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
-      <formula>"OPTIONS"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E17 E19:E25 E27:E33 E35:E41 E43:E49 D2:D11">
-    <cfRule type="cellIs" dxfId="45" priority="62" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D2:D11 E15:E17 E19:E25 E27:E33 E35:E41 E43:E49">
+    <cfRule type="cellIs" dxfId="47" priority="62" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 D19:D25 D27:D33 D35:D41 D43:D1000 D15:D17">
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
+  <conditionalFormatting sqref="D12 D15:D17 D19:D25 D27:D33 D35:D41 D43:D1000">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E11">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+  <conditionalFormatting sqref="D13:D14">
+    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E14">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E14">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
-      <formula>"YES"</formula>
+  <conditionalFormatting sqref="F10:F11">
+    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="36" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+      <formula>"UNDOCUMENTED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+      <formula>"DOCUMENTED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17 F19:F25 F27:F33 F35:F41 F43:F1000">
-    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="59" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="60" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
-      <formula>"DOCUMENTED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
-      <formula>"UNDOCUMENTED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11 G19:G25 G27:G33 G35:G41 G43:G49 G13 G15:G17">
-    <cfRule type="expression" dxfId="30" priority="61">
+  <conditionalFormatting sqref="G11 G13 G15:G17 G19:G25 G27:G33 G35:G41 G43:G49">
+    <cfRule type="expression" dxfId="33" priority="61">
       <formula>$E11="method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -4741,7 +4915,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -4755,7 +4929,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4802,7 +4976,7 @@
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4814,7 +4988,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4826,7 +5000,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4838,7 +5012,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4902,7 +5076,7 @@
     </row>
     <row r="14" spans="1:8" ht="37.5" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4914,7 +5088,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4926,7 +5100,7 @@
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4938,7 +5112,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4950,7 +5124,7 @@
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4962,7 +5136,7 @@
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4986,7 +5160,7 @@
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4997,7 +5171,7 @@
     </row>
     <row r="22" spans="1:8" ht="34.5" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5021,7 +5195,7 @@
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -5033,7 +5207,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5045,13 +5219,13 @@
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1"/>
     </row>
@@ -5065,8 +5239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D412421-5CA2-4299-9F7F-6CA1BD717DAE}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -5096,24 +5270,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="165.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
@@ -5122,46 +5296,48 @@
         <v>5</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="81.75" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="114.75" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="85.5" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>10</v>
@@ -5170,20 +5346,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="76.5" customHeight="1">
+    <row r="5" spans="1:9" ht="112.5" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>11</v>
@@ -5192,22 +5370,22 @@
         <v>5</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="57" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>12</v>
@@ -5216,20 +5394,20 @@
         <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="55.5" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>13</v>
@@ -5238,20 +5416,20 @@
         <v>8</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="66" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -5260,20 +5438,22 @@
         <v>5</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="58.5" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>7</v>
@@ -5282,31 +5462,71 @@
         <v>5</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="48" customHeight="1">
+    <row r="10" spans="1:9" ht="98.25" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="336.95" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+    <row r="11" spans="1:9" ht="159" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="348.95" customHeight="1">
+    <row r="12" spans="1:9" ht="348.75" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -7693,111 +7913,136 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="B1:B9">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+  <conditionalFormatting sqref="B1:B11">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"OPTIONS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"DELETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C9">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+  <conditionalFormatting sqref="C1:C11">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C17 C19:C25 C27:C33 C35:C41 C43:C1000">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+  <conditionalFormatting sqref="C12:C17 C19:C25 C27:C33 C35:C41 C43:C1000">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"OPTIONS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"DELETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E17 E19:E25 E27:E33 E35:E41 E43:E49 D2:D9">
-    <cfRule type="cellIs" dxfId="13" priority="26" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E12:E17 E19:E25 E27:E33 E35:E41 E43:E49 D2:D11">
+    <cfRule type="cellIs" dxfId="3" priority="33" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D17 D19:D25 D27:D33 D35:D41 D43:D1000">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+  <conditionalFormatting sqref="D12:D17 D19:D25 D27:D33 D35:D41 D43:D1000">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E9">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+  <conditionalFormatting sqref="E1:E11">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F17 F19:F25 F27:F33 F35:F41 F43:F1000">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+  <conditionalFormatting sqref="F12:F17 F19:F25 F27:F33 F35:F41 F43:F1000">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G17 G19:G25 G27:G33 G35:G41 G43:G49">
-    <cfRule type="expression" dxfId="4" priority="25">
-      <formula>$E11="method not allowed"</formula>
+  <conditionalFormatting sqref="G12:G17 G19:G25 G27:G33 G35:G41 G43:G49">
+    <cfRule type="expression" dxfId="20" priority="32">
+      <formula>$E12="method not allowed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="E43:E49 E11:E17 E19:E25 E27:E33 E35:E41 D2:D9" xr:uid="{D93FAF74-3DB6-4C66-B6DB-AAD479FE0094}">
+    <dataValidation type="list" allowBlank="1" sqref="E43:E49 F8:F11 E19:E25 E27:E33 E35:E41 E12:E17 D2:D11 F3" xr:uid="{D93FAF74-3DB6-4C66-B6DB-AAD479FE0094}">
       <formula1>"method not allowed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D43:D49 D11:D17 D19:D25 D27:D33 D35:D41 C2:C9" xr:uid="{B78A98E8-5D6F-490E-8EAC-439639CC8BA6}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D43:D49 D12:D17 D19:D25 D27:D33 D35:D41 C2:C11" xr:uid="{B78A98E8-5D6F-490E-8EAC-439639CC8BA6}">
       <formula1>"UNDOCUMENTED,DOCUMENTED"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C49 C11:C17 C19:C25 C27:C33 C35:C41 B2:B9" xr:uid="{9B280A12-BCB4-4AF9-9741-25E1FC032734}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C49 C12:C17 C19:C25 C27:C33 C35:C41 B2:B11" xr:uid="{9B280A12-BCB4-4AF9-9741-25E1FC032734}">
       <formula1>"GET,PUT,POST,DELETE,OPTIONS,HEAD,PATCH"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F43:F49 F11:F17 F19:F25 F27:F33 F35:F41 E2:E9" xr:uid="{A6256C10-574A-4F24-834E-CC721084AEB7}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F43:F49 F12:F17 F19:F25 F27:F33 F35:F41 E2:E11" xr:uid="{A6256C10-574A-4F24-834E-CC721084AEB7}">
       <formula1>"YES,NO,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7814,8 +8059,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -7829,7 +8074,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7876,7 +8121,7 @@
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7888,7 +8133,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7900,7 +8145,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7912,7 +8157,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -7974,8 +8219,10 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7984,8 +8231,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -7994,8 +8243,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:8" ht="33" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -8005,7 +8256,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -8046,8 +8299,10 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -8077,8 +8332,10 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -8088,7 +8345,9 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -8097,8 +8356,10 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">

--- a/SessionNotes_PartA.xlsx
+++ b/SessionNotes_PartA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang\OneDrive\Desktop\MCGILL\FALL 2024\ECSE 429\Project\Part1\GitHub\ECSE429_Project_PartA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A4019-C4BA-486F-9705-B8559ABF9579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAB5ED-3A3C-48F6-A12D-99720500E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes Session 1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,18 @@
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF7F7F7F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -586,6 +597,47 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -604,6 +656,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFC6EFCE"/>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -663,106 +723,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB764FF"/>
           <bgColor rgb="FFB764FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7F7F7F"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -901,23 +861,23 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC6EFCE"/>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -935,8 +895,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -957,8 +917,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1001,42 +961,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB764FF"/>
-          <bgColor rgb="FFB764FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF005B"/>
-          <bgColor rgb="FFFF005B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1049,35 +980,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1114,6 +1020,39 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
@@ -1130,13 +1069,34 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF00B0F0"/>
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF005B"/>
+          <bgColor rgb="FFFF005B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB764FF"/>
+          <bgColor rgb="FFB764FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4771,119 +4731,119 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B1:B14">
-    <cfRule type="cellIs" dxfId="63" priority="22" operator="equal">
-      <formula>"PUT"</formula>
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
+      <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
+      <formula>"HEAD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
+      <formula>"OPTIONS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="19" operator="equal">
+      <formula>"DELETE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
-      <formula>"PATCH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
-      <formula>"HEAD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
-      <formula>"OPTIONS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="19" operator="equal">
-      <formula>"DELETE"</formula>
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+      <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C14">
-    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C17 C19:C25 C27:C33 C35:C41 C43:C1000">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
-      <formula>"PUT"</formula>
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>"HEAD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+      <formula>"OPTIONS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+      <formula>"DELETE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+      <formula>"POST"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>"POST"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>"DELETE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
-      <formula>"OPTIONS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>"HEAD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>"PATCH"</formula>
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+      <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11 E15:E17 E19:E25 E27:E33 E35:E41 E43:E49">
-    <cfRule type="cellIs" dxfId="47" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="62" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D15:D17 D19:D25 D27:D33 D35:D41 D43:D1000">
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E14">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
-      <formula>"NO"</formula>
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+      <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
-      <formula>"N/A"</formula>
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11">
-    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+      <formula>"DOCUMENTED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
-      <formula>"DOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17 F19:F25 F27:F33 F35:F41 F43:F1000">
-    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="58" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="59" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="60" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G13 G15:G17 G19:G25 G27:G33 G35:G41 G43:G49">
-    <cfRule type="expression" dxfId="33" priority="61">
+    <cfRule type="expression" dxfId="28" priority="61">
       <formula>$E11="method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5239,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D412421-5CA2-4299-9F7F-6CA1BD717DAE}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -5432,7 +5392,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>5</v>
@@ -5456,7 +5416,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>5</v>
@@ -7914,122 +7874,107 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B11">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"OPTIONS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"DELETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C11">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C17 C19:C25 C27:C33 C35:C41 C43:C1000">
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"OPTIONS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"DELETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E17 E19:E25 E27:E33 E35:E41 E43:E49 D2:D11">
-    <cfRule type="cellIs" dxfId="3" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D2:D11 E12:E17 E19:E25 E27:E33 E35:E41 E43:E49">
+    <cfRule type="cellIs" dxfId="11" priority="33" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D17 D19:D25 D27:D33 D35:D41 D43:D1000">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E11">
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F11">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"method not allowed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F12:F17 F19:F25 F27:F33 F35:F41 F43:F1000">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G17 G19:G25 G27:G33 G35:G41 G43:G49">
-    <cfRule type="expression" dxfId="20" priority="32">
+    <cfRule type="expression" dxfId="0" priority="32">
       <formula>$E12="method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -8059,7 +8004,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
